--- a/data/passwords.xlsx
+++ b/data/passwords.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,700 +443,7000 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>zzz2dav7m2i</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>Summer7300*</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>qwerty</t>
+          <t>111111</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>abc123</t>
+          <t>Coffee2322%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>111111</t>
+          <t>EYzthmjcu+HyCg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>123123</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>senha123</t>
+          <t>letmein</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>iloveyou</t>
+          <t>welcome</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>s_hiEY-Deo</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>welcome</t>
+          <t>letmein</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>monkey</t>
+          <t>abc123</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>letmein</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>football</t>
+          <t>admin</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dragon</t>
+          <t>letmein</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sunshine</t>
+          <t>QJA_GNLjVRL2g!@JA#</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>master</t>
+          <t>Friend9611$</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hello</t>
+          <t>Gamer584*</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>Nature5558!</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>whatever</t>
+          <t>House9804%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>M1LqwPA2Y2ym$1OsJ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>iloveyou</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>shadow</t>
+          <t>welcome</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>princess</t>
+          <t>Gamer8817#</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>qazwsx</t>
+          <t>password</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>password1</t>
+          <t>Shadow31@</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Casa2021!</t>
+          <t>Flower3474%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amigo2023</t>
+          <t>7rHk--4uyJn</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tr3ndMUsic!99</t>
+          <t>Nature668&amp;</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brasil2024</t>
+          <t>House7499%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Natura#21</t>
+          <t>Study3383@</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P@ssw0rd2024</t>
+          <t>Study7320$</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Summer2023</t>
+          <t>Friend7247%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>C0ffeelover</t>
+          <t>Summer7060$</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Joao#2022</t>
+          <t>Friend2942!</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mari_1234</t>
+          <t>monkey</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Senha@Forte</t>
+          <t>O%NS@C@254dh@d8r</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>L0gin@2023</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G@mingLife99</t>
+          <t>iloveyou</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Study#Mode</t>
+          <t>monkey</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BookLover22</t>
+          <t>M4TmFDgidZ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Work!Hard</t>
+          <t>Shadow8773$</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TimeToCode</t>
+          <t>Friend3313%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BeHappy24</t>
+          <t>Gamer9953$</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P@raSempre</t>
+          <t>HWn$J-U5pg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SkyBlue77</t>
+          <t>DpbEQo3VOr8N6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Star!Dust9</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C@fezinho</t>
+          <t>House447&amp;</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Strong#Mind</t>
+          <t>111111</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Peace&amp;Love</t>
+          <t>welcome</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MyDog123</t>
+          <t>House5776!</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OceanView!</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mountain#Top</t>
+          <t>Flower9963!</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tr@velNow</t>
+          <t>Study2089&amp;</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MyHeart22</t>
+          <t>Summer6433@</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GoodLuck!77</t>
+          <t>zYS@Ltm!VKY</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Plan#2025</t>
+          <t>Shadow6128#</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Smart123</t>
+          <t>Shadow8559*</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Victory!</t>
+          <t>Shadow9965&amp;</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Future@Goal</t>
+          <t>Study2392!</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>S@feHouse</t>
+          <t>monkey</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>R3li@bl3P@55w0rd!</t>
+          <t>Work9829&amp;</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>G#7xF!m2Lq8</t>
+          <t>6v#1%NaXkY78JW</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XyZ!93z@P1</t>
+          <t>Study9210%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>N!ghtFalcon@2048</t>
+          <t>9cbK-NwFa#zh*Ls1M+</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>9pT@zR!4yU</t>
+          <t>r!Z-gk5l4nDU091L</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>W@terF0x#22</t>
+          <t>senha123</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0mega#2025!</t>
+          <t>Flower3847&amp;</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>F!r3Str0m_99</t>
+          <t>letmein</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Z@pper_77!</t>
+          <t>letmein</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P0w3rM!nd#1</t>
+          <t>UMhcKYS%B9C</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>T!tanium_S3c</t>
+          <t>Happy3254*</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R@inB0w#2024</t>
+          <t>Friend2464&amp;</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Cr!pt0K3y#</t>
+          <t>Gamer9759#</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B@ckDoor99!</t>
+          <t>qwerty</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>N3ural#Link@</t>
+          <t>Nature7632$</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Qw3rTy#9087</t>
+          <t>Flower8736&amp;</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>S3cur3!Vault</t>
+          <t>Egc40-A!bjWv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>M@trix#Reboot</t>
+          <t>Friend6622*</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>H@shBuster99</t>
+          <t>*+x&amp;8g+eEAmjeb</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Quantum#AI!</t>
+          <t>Shadow7560&amp;</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Infini#Loop@</t>
+          <t>Study6760*</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D@taShield42</t>
+          <t>1IopvTqff1yUI*#S</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Z#ph1r9L@b</t>
+          <t>Happy8620@</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cyb3rW@ll!</t>
+          <t>123456</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Encrypt#Me9</t>
+          <t>Brazil8064&amp;</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Deep#Sea2024</t>
+          <t>admin</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>4rcT!cW0lf@</t>
+          <t>House2759$</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S@turnR!ng5</t>
+          <t>Friend6660*</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0verCl0ck#77</t>
+          <t>House8790*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S!lverH@wk</t>
+          <t>Study9880@</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>H@ckPr00f!Key</t>
+          <t>ynAK71&amp;7fxU1&amp;5r</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mega#Core!99</t>
+          <t>monkey</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>5up3rS@fe#P@ss</t>
+          <t>Study4708%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>P@thF!nderX</t>
+          <t>szKB9zpPlf%3+</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Unbr3@k@ble#2025</t>
+          <t>E&amp;-7N_VGM0w4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B!oSecur3X!</t>
+          <t>Flower7778%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Neural#Web!</t>
+          <t>Shadow5889@</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>S@feZone#999</t>
+          <t>iloveyou</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Tru$tMe#42</t>
+          <t>Q0w%XsMXogFqIw</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bl@ckH0le#AI</t>
+          <t>House9554@</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>House1032#</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Friend1262@</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>r!Jzw!zKxNtr</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>House2208#</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>FpW1OKx2McfG</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Work3146!</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6jbs+2bbl@$W+P5</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Study4717!</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>n&amp;l5BNjMCjEXOeIB</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Study4912!</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Summer1141!</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Study1719%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Study6596#</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TWkG4_kcuy-!zHj73</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Happy497%</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>House8578!</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Kl2rAY6ib4j@Dz</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Happy3339*</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0Y**xuYByCkJj+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Lw*JddtW#Ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>House2334#</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Shadow4978@</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>OESqrL!ECyhTx</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>QO4*y%s3db7</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>kk6mfYOQ3dsZ#zt</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>grr%8SkJt8</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Nature4075&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Study9302$</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>iBoa%J!AR7j3hOhH!</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Work8758&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>#V20uhlGtk_</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PZum&amp;!b+sfV&amp;Co</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1fTSOm4hlAPY0vrH3R</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>House2144@</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>w&amp;2jovTSQXI</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>JZd9&amp;v@I5Rw#D&amp;*</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>#8UY&amp;AdB%SCJQe</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Friend9789$</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Nature774&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>_w!5pWv7QV!-W_*Ort</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Friend8155&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Coffee502!</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Friend3432%</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Work8508%</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Summer2684#</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>9o0X$J@hkv5G5s1!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Brazil1063@</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Gamer8893$</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Gamer7217#</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HItEMoqS62O</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>E3!TZ2cMQ-P</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Coffee1016!</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>@%YVvuWIVrbY@u0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>F8dmm-DS*7</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Summer7185!</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Work6951@</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Gamer8063%</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>@&amp;jA4ZMk#p7</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>!rAty*cxSe</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Shadow2922!</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Jb!7OD9kH*P1_Woe</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Coffee3976&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>$pdYFvTRF%j1!PHz</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Happy4809#</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>&amp;R-qUAiP7@MT&amp;7I</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Shadow1276#</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Flower2912*</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>crHIX&amp;KHsDvAu</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Brazil589%</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Work8408%</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>sG@m0uxF5cGzjlYg</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>u2MToH8ZwM</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Nature4947&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>$863S%vqPknwY&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Study8810$</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>c&amp;hSOs__J&amp;mX6</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>SV86$K#g#z-GH</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>S_Z#9hs4_Y#_rt</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Work9654%</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>dPSHLDl-W$@i+s</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>QXjD$imLmge</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>*D+EGAe2fkHF7XKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Flower8978$</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>-xWRMF3pJm+F%o</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>YC5YF1*%vYTv6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Coffee5003#</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Summer7479!</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Study3539#</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>j!z2+w2J6X#T</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>s4_goaV*BHiwNQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>fvGQXVK5u1QdK2Hdl</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Nature7378#</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Friend3858&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>hplaQ8@eMw10+</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>u8bI26Rc&amp;k$</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Coffee1758!</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>$@4w!M_%7!kGu</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>tcl8o*gX@lU</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>tH6sgFgDOs1@3Dop</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>House52!</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Work5570@</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>VAYgCZYiGvLL#nIfW</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Coffee5553$</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>gjh0*m!U_KXxOg</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Flower274&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>%M0+LU06SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>#7bAp7XaOJsjs</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>!BQgJL9*NgS0RzO</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>!MjKucj0Jh4Ghl#%ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>_k9Jb*x1spJIRxO0</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>O5Pt@CJH%aa3</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Happy1614&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Flower2472%</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Gamer6022$</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>$OmQ3P7ok1gsDhQi$</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Study4662&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>ue5WpUk2n1*dk</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>HzrRFlk8Kwf1kNmYSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>piwM$DP%Ry</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Coffee6598&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Nature6003$</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>House949@</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Fj-OiUS@lfTP&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Study463&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Coffee859!</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Work5526%</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Friend3542@</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>$urY+YoX54AhH4zQVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Coffee8764#</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>fAu0i7ei4O</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Gamer4991#</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>26!UO*ih%kxLzNFh</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Nature1652%</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>U3m3Dr91mRsXZqk</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Happy1629@</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>3NghReNyNd</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>aNk-fVEwF2KLF31vN</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>XEzN&amp;ItztHl1</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Shadow1175&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>5cI_LiJregLBC!7z</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ii#&amp;aTeLliL%nHdEl</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>XkDnLzSKc@</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Summer8606#</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Shadow9061*</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Friend2592#</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>MICwsTc24dSJQ7N7pO</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>9CDdXw*_H2</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Gamer7321$</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>LaXVc+I$XIi15</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>House1144*</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Brazil7898!</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Flower2695@</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>5$V7b9Gk#w@</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>1wi9SXl0P-</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>House550&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Brazil2773%</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Happy5939&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Shadow6245#</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>pzaVo&amp;dlah9&amp;D*x469</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Work1278!</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>nSN-3WBrPA+</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Study4660&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Study8572&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Study1066$</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Happy3321$</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Study9438!</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nature3562@</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Summer868$</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Coffee4526@</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Happy802!</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>xwZxXd2_O8J</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Work2189%</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Coffee9190&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Q&amp;WhZ$z1Kzee</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Work2464&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>tV9E&amp;H0cdqraf9</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Study3606@</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Coffee8554&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>House880&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Happy474*</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>s@Q_GwbinfE</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Coffee7462!</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>es7KZw5*tY1D</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>House6253#</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>House8466*</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Friend6886!</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Coffee8670#</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>GCH0pLRGGk7g1C</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Flower2469!</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Happy5671$</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Coffee9552*</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Work2019#</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>WhhZ&amp;IaJph&amp;uy*4Yf7</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Work8216%</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Study5275#</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>p*hSqFwWBo$nf4NkF</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Brazil5394&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Uvrh$GbY$7A95</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>jPLUgSJY+tp</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>aV6@FCN+*ErNZL</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>w60zId*j5Ot8N</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>MidGDStRM-GRb</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Friend8333&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>wevgxUaCCrwS1x</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>lawvZgy6Q6M</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Brazil1638%</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>House494!</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Nature6700!</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>MBbP%-Ne6ZZu</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>5BWU@cpKougi6ij5%G</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Study9585@</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Coffee2073@</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Friend4825@</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>wM0K&amp;sS-#Vc8#7</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Coffee7098*</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Ld-3cKsYhk</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>wf&amp;C_Sa!pS7&amp;o</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Work756*</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Study5856&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Happy5048$</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Flower2487#</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Shadow9256&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Shadow1216#</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>GcK5E2spcE-</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>rqRzdw9rge$AFYEen</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Happy1106%</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>hzBd2fjymT1YDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Shadow8999@</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>ZE-Ch1YLN+qj9JQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>rHz*e*CwJBAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2uM8KsHw%P</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>qsWNjInBoViV$</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Gamer9351!</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Work3874!</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>ktTO#C4cPJWo$B4SWJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Gamer4881@</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>C_oS2YHWQCD7+</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Work6238$</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Summer8617&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>*HjBsUh2OYh%</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Flower6907#</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Friend1773$</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>6SY*W%64%KE</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>$$KJ3b86I3fFr8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Shadow1451$</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Flower6992%</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>House802!</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Shadow9440*</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Happy4325!</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Friend3330@</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Shadow5481!</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Shadow5433#</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>w-Sa%5_WlzIXSsg</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Brazil913%</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Gamer6256!</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Friend2959#</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Gamer6389$</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>bK&amp;65+huBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Nature6371!</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Shadow7875*</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Summer9456@</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>wQ-mlfIu+fC</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Shadow5569#</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Summer4427&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Shadow1388$</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Work6230$</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>zgcX&amp;%npJ-sXHvNnwj</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Summer2393*</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Fa5zccxIMv</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>F7XqcA%o#Mb4m</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>KvxXT@7YciqX+7t8R8</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>GZ6ZZsPL9Od</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Flower6397*</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Gamer3011$</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Flower8739*</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Brazil1980#</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>@Oz&amp;jhCwQ_SUP4c</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>gpfCgLle&amp;WZbacP</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>ZDg@2x+3uDSN2fXm1</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Work9725!</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Flower1259#</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Flower8671*</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Happy3459%</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>DDd_*cS#qudWufz416</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Q%LHX1SGkos&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>N5QN_$6j*2IEIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Tf@xNN5z_yO@*</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Friend9928*</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Work8527#</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Gamer1095@</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Shadow1893#</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>8T_zz0&amp;Zzo4*oIACO</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>tNB3o38bqnACk+</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Shadow7327!</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Friend777&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Flower6713!</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Shadow7550!</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>QWLACQkklFKoLGVaW3</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>F%IERN2GYFaxbBnq</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>@lajFO&amp;tXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Happy3483$</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>j1Po1#I!kYBe-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>lBRg$K2Ks9Ui20fKX</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>House1249&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>3$SS*L1OBVx</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Nature5515@</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>!8H$g@M&amp;YYAz</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>h+C5EJ2MH$</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Gamer1255#</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Work6744!</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>&amp;OP%JZFg5k0</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>@u@eauAcW%nbjjZOSY</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Flower1705!</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Happy5255@</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>House5477%</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Flower6287@</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Flower4634&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>anSXwMNgxN6</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>BvaOha7ajXqLD&amp;ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>dQ44RK+AJrC$QRN$e7</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>House2818%</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>&amp;NU&amp;N5NLnh$wb_6F-s</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>tAoRC4B6*YjBo</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Work6814@</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Study9876&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Shadow8790%</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Nature9366%</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Nature4795!</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>CT!QgtwWIo</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>jwRmBPFneGz</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>P$VcJnJW8IB&amp;l</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Nature7896*</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>5AqCt2IjifRNm*Js</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Nature646*</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Brazil9883$</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>House9673!</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Shadow2242$</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Flower1238$</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Nature546!</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Happy6302#</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>KyI7VAksLJ4O</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Flower5411&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Ok7GtUe*Xrf</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Summer2267#</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Shadow4092$</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Shadow2756@</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>eCU@xVhHE&amp;4Cd#</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>House160$</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Gamer8936$</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Brazil3174&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Summer3539*</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>House6123@</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Brazil3198*</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Coffee3805!</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Friend7302@</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Coffee4406$</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>AKtR1c4xuvNb</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>V#k$!xvmYQHu</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Coffee5038%</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Friend1198*</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>-M$nxq*9_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Shadow4327@</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Coffee3861*</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>1NyvD2oJFQTAjNUt</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Summer6649&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Coffee8292%</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Friend8576#</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>KV_aq&amp;hKaB7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>House9526*</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Happy4178$</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Summer5463$</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Gamer4946*</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Work613!</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Coffee6743&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Coffee2517$</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>CUc9eXfM+H4mSNbn4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>7hYRGT6ts7</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>rVQq7$f%FkDE</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>E@MhYS96uw</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Happy2292#</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>s%*84dNNSWmUBbZ_dU</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>OSJr!fTM8@OuN</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Coffee8589@</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Shadow5788#</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>6BX6%vc4JhGZRBKz#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>kw*V2Z08rm%</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Coffee402*</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Brazil4393&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Coffee1480@</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>W2EJZtn4l8i</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Study414%</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>1CPt6eWshOaO</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Shadow1367$</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>XvzYtMmcJw2</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Nature1591$</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Friend7498@</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Summer4775%</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Coffee9078*</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Friend334#</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>House5233&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Brazil6029$</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>x*k&amp;Qd3r#qq</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Shadow7771!</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>moj_!Rt-1y+bFjs</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>LOb0OI8*FVTC1</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Shadow5680@</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Happy2017%</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Summer3572!</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Gamer2271#</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>eTBKt@s1zabsj2#+</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Summer1613*</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Brazil5642%</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>OS0gf7PD1*!v++m</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Work6054*</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Shadow7956#</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>oC%v-bH1BxQUF1_</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Happy5611$</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Coffee2524%</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Brazil8966@</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>zy@xK-cJHE5</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Nature5599$</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Nature1413#</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>6FTO01R5n%_f</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>LM7kMLrIAnrkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>qsXbIYYJN16cbG</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Work8428#</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>m#ajLG8p1dImi7n+0</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Flower702%</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>cjaL1gfb2G7O5#j</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>House109&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Brazil280&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Friend7964&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Flower7047!</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Work9155%</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Shadow7102@</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>gRr4v@vBK&amp;J</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Work8716@</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Gamer4102%</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Friend9255$</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>oaeT%HeJmaDk6HE$8</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>16bS!heTiz@I</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>8kSrq+_4d2tq</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>z9mfq8CW6aOxwen</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Coffee3552@</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>NcwtuxBxg9</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Flower7990$</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Study7407@</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>K-CJ7AdzCifKN!</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Gamer5001*</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Study6016@</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>KL83d$D$DNfbc2</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Flower9878%</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Nature2817*</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>SWbQk0d4q83hqYBk</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Coffee6627#</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Flower4803&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>rl%nlC*6JWP%35uM</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>6P1qd+kQbY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>XGGbP_Q3J#lPL2</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Brazil2203#</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>m@!iWHDsqFdK0FGTsH</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>mla3d!cwk1r-ej2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>T%uP1AN&amp;FKE</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Shadow7461$</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Brazil4914#</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>HMHcE!s-2KO</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Shadow7606!</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Hvp7y7@FfSN+</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>_k3L2be*QboV</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>#m0fQagr$k3KPVm</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>Brazil1325!</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>1bSBRtZKe@G</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Gamer1757@</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>0UEamkeKFzBAs5u9</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>IaTa3FsP%rxs6</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Friend3644&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>-cDZkdW9dqc</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>QMc8Yg1kbXQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Friend275$</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Shadow2529*</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>UsR&amp;O_@l0-rmx</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>House6331*</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>#EQB!d_48CP</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Gamer4453&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Brazil2441*</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>*L-4g8wlAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Rx5wBIN7e8o&amp;A</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Gamer8849#</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>House3423%</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Summer3474&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Shadow3812$</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>W!m0pJAlfS</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Flower2943!</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Q!c1hWrS!lik</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>%gPhD7gQ1%i2hGHG</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>%g%NgO1KGjNy</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>oBTlCAW!i21</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>Study6950$</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>Coffee9557!</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>uEQTKix5WQstL</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>Flower2011&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>i8qourPL0%DD6W</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>Happy3764@</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>Shadow1564#</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>Happy835%</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>0BOVne*u%-pjor6nd</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>VjEi65oM2Wn9URnUk+</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>Nature2836!</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>Happy2767#</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>Flower2659&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>Friend8938#</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>Brazil8586*</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>SKDXO$Bc9u@I$HS</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>Coffee7442*</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>Summer4488#</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>Coffee6216*</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>PgrEIdQkHjuWQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>Flower8899!</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>Study877@</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>KEo9XR96YCn5dcBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>1iTp-ZRo9-0ds</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>sG32ABH49#3</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>G_vtFZFmP2_w</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Gamer5913@</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Shadow6849&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Summer2906%</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Gamer2900!</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>House7146%</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Flower271@</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Nature6719&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>bT9hi1LO9H2C&amp;%</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Nature5762!</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>yiF$b7U*GGTaKU68Ao</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Flower3107#</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>i2nF3yFy9o9Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Nature5354#</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>A_QC5PF0mmMnTX</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>QKaWklq1Hr</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Happy2654&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>WW2h@ikjswyAnD%gC</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>tPNu-OV2xP</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Summer5233*</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Flower5092%</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Flower8293@</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>a!gvYgn!Ca</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>alkA5#qR1vURbSrb0</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>qwerty</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>House848!</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>o!mt6UUhly8@W</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Brazil6467&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Brazil576$</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>c&amp;#w2NwUZ_JZ83#HR</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Gamer4136#</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Gamer2514%</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Happy6834@</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Z9AV!@7zBS@9or_jP6</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Nature584%</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Shadow1421%</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Happy3254#</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Gamer6114&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>8EfvzlTPDgV9%m</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Z5ACeRR4XHmu1ToTCg</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>J-JwoTNy5@Fs</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Summer7775%</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>roJ41@HzGkpDXeHiF</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Study8766!</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>House1567&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2Udy1S*Ds2YeR</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>bD!PljxA2sM</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Study7834&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Work4957&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Study4440$</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Summer878&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>S!k9YqcIbwGasUjW</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Happy9737@</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Shadow5251!</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2gk_CVU7crxgIV-JA</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Happy1809&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Study5534$</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Flower3673$</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Nature285&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Gamer1152$</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2YEB!tNAwr$DX</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>House8871$</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>Flower1775%</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>f@NB#bIj*rLOZ0s</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>YIbh8DOiAiYLM0i$De</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>8Q!&amp;OF5XR*uh$D</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>u2SUr-b60PCqy</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>qI%#Z#F$tF85</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>yh9FWR2pLqoW</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>Gamer8204*</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>Study5341@</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>ixfYGVf1CE!Cj</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>Happy8090&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>h+SDwqMQER9WdI</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Work3074$</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Friend5260#</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>senha123</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>Q@lu!B1bf$</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>welcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>Shadow8345&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Coffee8580%</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Shadow3188!</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Summer4266$</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>%M9AJNZ3PCxZxbM-*A</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>SL@C_c*H7A</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>iloveyou</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>Gamer7317#</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Mz7bnhmG!*</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Summer8510&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Shadow3469$</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>4FQKuUIczJakYJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Happy9772#</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Happy6148%</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Pz0I*jp19Wwgu1hp</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Shadow8265$</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>Study9180&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>House7969*</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Summer8910*</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Flower5013#</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>House1093$</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2krqc7C28@qT3</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>House9337&amp;</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>jLW&amp;seb907xtB0cRt</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Coffee7903%</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>tchbsN*+vrWE6WY1</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Work1658#</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>House3145$</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>monkey</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>hUr%u@bMQUNm4!I</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Xx8N2sn7mHcVG#c</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Xi!nab07LoScIs%</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Shadow8974$</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>6WZkD6nk6cvg9vJ1</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Gamer6894#</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>4YGG0uR&amp;D9</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>OU$tr08MOTKaH4ORv</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>letmein</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>yGWrpJfY43sV</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>$orpr_F*bDOaf</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>abc123</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Study4456*</t>
         </is>
       </c>
     </row>
